--- a/raw-data-prep/raw_data/digits_JS.xlsx
+++ b/raw-data-prep/raw_data/digits_JS.xlsx
@@ -11,15 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$172</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Subno</t>
-  </si>
   <si>
     <t>L_ring_length</t>
   </si>
@@ -45,9 +45,6 @@
     <t>R_ring_angle</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Left index finger distorted</t>
   </si>
   <si>
@@ -55,6 +52,12 @@
   </si>
   <si>
     <t>Multiple folds on left ring finger</t>
+  </si>
+  <si>
+    <t>Notes_t</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -411,8 +414,8 @@
   <dimension ref="A1:J172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I172" sqref="I172"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,34 +432,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1590,7 +1593,7 @@
         <v>88.36</v>
       </c>
       <c r="J40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2057,7 +2060,7 @@
         <v>87.16</v>
       </c>
       <c r="J56" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -5047,7 +5050,7 @@
         <v>80.97</v>
       </c>
       <c r="J159" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -5428,6 +5431,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J172"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
